--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>11.87612903760619</v>
+        <v>11.87531291856449</v>
       </c>
       <c r="G2" t="n">
-        <v>11.65002605316499</v>
+        <v>11.64171663787083</v>
       </c>
       <c r="H2" t="n">
-        <v>12.1064855036354</v>
+        <v>12.10637697944409</v>
       </c>
       <c r="I2" t="n">
-        <v>1.963913420392733</v>
+        <v>1.963892990706985</v>
       </c>
       <c r="J2" t="n">
-        <v>1.943037982764963</v>
+        <v>1.942591949804927</v>
       </c>
       <c r="K2" t="n">
-        <v>1.98551966924679</v>
+        <v>1.98512201043353</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1527885433235371</v>
+        <v>0.1527866467839192</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1511647119821531</v>
+        <v>0.1511356634833285</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1544496689388032</v>
+        <v>0.1544333745241097</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001952943839487901</v>
+        <v>0.001953086267067525</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001197686509874542</v>
+        <v>0.001202108190285474</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002860046237731224</v>
+        <v>0.002859145694499103</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001808605857505418</v>
+        <v>0.001808712551014187</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001101349140193212</v>
+        <v>0.001105549696174063</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002655684277412224</v>
+        <v>0.002654615185705069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002036869633310069</v>
+        <v>0.002037019747123656</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001266894263265313</v>
+        <v>0.001271384674632113</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002958168499411178</v>
+        <v>0.002957286730969938</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.1537386519519979</v>
       </c>
       <c r="F4" t="n">
-        <v>11.87808198144568</v>
+        <v>11.87726600483155</v>
       </c>
       <c r="G4" t="n">
-        <v>11.65122373967487</v>
+        <v>11.64291874606112</v>
       </c>
       <c r="H4" t="n">
-        <v>12.10934554987314</v>
+        <v>12.10923612513859</v>
       </c>
       <c r="I4" t="n">
-        <v>1.965722026250239</v>
+        <v>1.965701703257999</v>
       </c>
       <c r="J4" t="n">
-        <v>1.944139331905157</v>
+        <v>1.943697499501101</v>
       </c>
       <c r="K4" t="n">
-        <v>1.988175353524202</v>
+        <v>1.987776625619235</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1548254129568472</v>
+        <v>0.1548236665310428</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1524316062454184</v>
+        <v>0.1524070481579606</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1574078374382144</v>
+        <v>0.1573906612550796</v>
       </c>
     </row>
   </sheetData>
